--- a/Analuusitud seletused/Unikaalne_meetod.xlsx
+++ b/Analuusitud seletused/Unikaalne_meetod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Töölaud\Bakatöö\Lõpptulemus\Protsent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e1e23a845f0f8/Töölaud/Seletuste-automaatne-genereerimine-ja-kontrollimine-Eesti-Wordneti-naitel/Analuusitud seletused/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E996D8FF-7F6F-420E-8956-3822BB9F5C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{E996D8FF-7F6F-420E-8956-3822BB9F5C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{794B604C-6A67-4E2C-BBB7-94E27EA1E542}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31560" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4388" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="2198">
   <si>
     <t>Sünohulk</t>
   </si>
@@ -6627,6 +6627,9 @@
   </si>
   <si>
     <t>PWNst tõlgitud seletus</t>
+  </si>
+  <si>
+    <t>Keskmine</t>
   </si>
 </sst>
 </file>
@@ -6749,6 +6752,48 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -6770,48 +6815,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -7841,10 +7844,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FE8D30B-062B-4A4A-8489-15DF9ADF10B5}" name="Tabel1" displayName="Tabel1" ref="A1:F1095" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9FE8D30B-062B-4A4A-8489-15DF9ADF10B5}" name="Tabel1" displayName="Tabel1" ref="A1:F1095" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
   <autoFilter ref="A1:F1095" xr:uid="{9FE8D30B-062B-4A4A-8489-15DF9ADF10B5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8F85F5A9-6808-464F-B84F-8DFE15AEC215}" name="ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{8F85F5A9-6808-464F-B84F-8DFE15AEC215}" name="ID" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{830CFBC5-AB77-47A5-909B-3E79B9D5E727}" name="Sünohulk"/>
     <tableColumn id="3" xr3:uid="{F535DC5E-534A-4C74-924E-C95D6A22BF96}" name="EKI seletus" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{4D224AE7-819A-4472-848D-E94F0013CA9C}" name="PWNst tõlgitud seletus"/>
@@ -8143,7 +8146,7 @@
   <dimension ref="A1:L1095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8153,6 +8156,7 @@
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -8288,10 +8292,6 @@
         <f>COUNTIF(F:F,4)/1094</f>
         <v>0.84369287020109685</v>
       </c>
-      <c r="L6">
-        <f>COUNTA(F2:F1095)</f>
-        <v>1094</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -8354,10 +8354,7 @@
         <f>COUNTIF(F:F,2)/1094</f>
         <v>2.4680073126142597E-2</v>
       </c>
-      <c r="L8" s="3">
-        <f>AVERAGE(F2:F1095)</f>
-        <v>3.6032906764168189</v>
-      </c>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -8420,10 +8417,6 @@
         <f>COUNTIF(F:F,0)/1094</f>
         <v>7.1297989031078604E-2</v>
       </c>
-      <c r="L10">
-        <f>SUM(I6:I10)</f>
-        <v>1094</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -8464,6 +8457,9 @@
       <c r="F12" s="8">
         <v>4</v>
       </c>
+      <c r="H12" t="s">
+        <v>2197</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -8483,6 +8479,10 @@
       </c>
       <c r="F13" s="8">
         <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <f>AVERAGE(F2:F1095)</f>
+        <v>3.6032906764168189</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
